--- a/02_config/scenario_pv_60_hp_60_ev_60_mixed_10_transition_perfect/agents.xlsx
+++ b/02_config/scenario_pv_60_hp_60_ev_60_mixed_10_transition_perfect/agents.xlsx
@@ -29,12 +29,12 @@
     <t>general/bus</t>
   </si>
   <si>
+    <t>general/aggregated_by</t>
+  </si>
+  <si>
     <t>general/parameters/occupants</t>
   </si>
   <si>
-    <t>general/aggregated_by</t>
-  </si>
-  <si>
     <t>general/parameters/area</t>
   </si>
   <si>
@@ -1016,7 +1016,7 @@
     <t>sfh_38</t>
   </si>
   <si>
-    <t>w3peTb1eWNg0kWx</t>
+    <t>7aGt5jC8xUMLOOm</t>
   </si>
   <si>
     <t>000018335.csv</t>
@@ -1571,7 +1571,7 @@
     <t>clustering_represented_group/share</t>
   </si>
   <si>
-    <t>['sfh_21', 'sfh_11', 'sfh_4', 'sfh_19', 'sfh_7', 'sfh_20', 'sfh_26', 'sfh_0', 'sfh_10', 'sfh_30']</t>
+    <t>['sfh_6', 'sfh_19', 'sfh_9', 'sfh_34', 'sfh_30', 'sfh_33', 'sfh_32', 'sfh_5', 'sfh_35', 'sfh_22']</t>
   </si>
   <si>
     <t>[1]</t>
@@ -2841,14 +2841,11 @@
       <c r="E2">
         <v>21274</v>
       </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>333</v>
+      <c r="G2">
+        <v>3</v>
       </c>
       <c r="H2">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I2">
         <v>2</v>
@@ -2857,7 +2854,7 @@
         <v>2.6</v>
       </c>
       <c r="K2">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -3016,7 +3013,7 @@
         <v>60</v>
       </c>
       <c r="DE2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF2" t="s">
         <v>373</v>
@@ -3298,7 +3295,7 @@
         <v>487</v>
       </c>
       <c r="IN2">
-        <v>86400</v>
+        <v>72000</v>
       </c>
       <c r="IO2">
         <v>1</v>
@@ -3349,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="JG2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ2">
         <v>0</v>
@@ -3358,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="JL2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO2">
         <v>0</v>
@@ -3367,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="JQ2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:295">
@@ -3380,7 +3377,7 @@
       <c r="E3">
         <v>21249</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>4</v>
       </c>
       <c r="H3">
@@ -3552,7 +3549,7 @@
         <v>50</v>
       </c>
       <c r="DE3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF3" t="s">
         <v>373</v>
@@ -3807,7 +3804,7 @@
         <v>487</v>
       </c>
       <c r="IN3">
-        <v>57600</v>
+        <v>43200</v>
       </c>
       <c r="IO3">
         <v>1</v>
@@ -3858,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="JG3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ3">
         <v>0</v>
@@ -3867,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="JL3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO3">
         <v>0</v>
@@ -3876,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="JQ3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:295">
@@ -3889,11 +3886,11 @@
       <c r="E4">
         <v>21166</v>
       </c>
-      <c r="F4">
-        <v>4</v>
+      <c r="G4">
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -3902,7 +3899,7 @@
         <v>2.6</v>
       </c>
       <c r="K4">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -4046,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="DE4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF4" t="s">
         <v>373</v>
@@ -4238,7 +4235,7 @@
         <v>487</v>
       </c>
       <c r="IN4">
-        <v>72000</v>
+        <v>86400</v>
       </c>
       <c r="IO4">
         <v>1</v>
@@ -4289,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="JG4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ4">
         <v>0</v>
@@ -4298,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="JL4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO4">
         <v>0</v>
@@ -4307,7 +4304,7 @@
         <v>0</v>
       </c>
       <c r="JQ4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:295">
@@ -4320,7 +4317,7 @@
       <c r="E5">
         <v>20723</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>3</v>
       </c>
       <c r="H5">
@@ -4477,7 +4474,7 @@
         <v>0</v>
       </c>
       <c r="DE5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF5" t="s">
         <v>373</v>
@@ -4669,7 +4666,7 @@
         <v>487</v>
       </c>
       <c r="IN5">
-        <v>72000</v>
+        <v>57600</v>
       </c>
       <c r="IO5">
         <v>1</v>
@@ -4720,7 +4717,7 @@
         <v>0</v>
       </c>
       <c r="JG5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ5">
         <v>0</v>
@@ -4729,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="JL5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO5">
         <v>0</v>
@@ -4738,7 +4735,7 @@
         <v>0</v>
       </c>
       <c r="JQ5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:295">
@@ -4751,11 +4748,8 @@
       <c r="E6">
         <v>20561</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>4</v>
-      </c>
-      <c r="G6" t="s">
-        <v>333</v>
       </c>
       <c r="H6">
         <v>130</v>
@@ -4926,7 +4920,7 @@
         <v>42</v>
       </c>
       <c r="DE6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF6" t="s">
         <v>373</v>
@@ -5205,7 +5199,7 @@
         <v>0</v>
       </c>
       <c r="JG6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ6">
         <v>0</v>
@@ -5214,7 +5208,7 @@
         <v>0</v>
       </c>
       <c r="JL6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO6">
         <v>0</v>
@@ -5223,7 +5217,7 @@
         <v>0</v>
       </c>
       <c r="JQ6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:295">
@@ -5236,7 +5230,10 @@
       <c r="E7">
         <v>20289</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G7">
         <v>3</v>
       </c>
       <c r="H7">
@@ -5408,7 +5405,7 @@
         <v>50</v>
       </c>
       <c r="DE7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF7" t="s">
         <v>373</v>
@@ -5690,7 +5687,7 @@
         <v>487</v>
       </c>
       <c r="IN7">
-        <v>43200</v>
+        <v>86400</v>
       </c>
       <c r="IO7">
         <v>1</v>
@@ -5741,7 +5738,7 @@
         <v>0</v>
       </c>
       <c r="JG7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ7">
         <v>0</v>
@@ -5750,7 +5747,7 @@
         <v>0</v>
       </c>
       <c r="JL7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO7">
         <v>0</v>
@@ -5759,7 +5756,7 @@
         <v>0</v>
       </c>
       <c r="JQ7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:295">
@@ -5772,11 +5769,14 @@
       <c r="E8">
         <v>20136</v>
       </c>
-      <c r="F8">
-        <v>3</v>
+      <c r="F8" t="s">
+        <v>333</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -5785,7 +5785,7 @@
         <v>2.6</v>
       </c>
       <c r="K8">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -5944,7 +5944,7 @@
         <v>90</v>
       </c>
       <c r="DE8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF8" t="s">
         <v>373</v>
@@ -6226,7 +6226,7 @@
         <v>487</v>
       </c>
       <c r="IN8">
-        <v>86400</v>
+        <v>57600</v>
       </c>
       <c r="IO8">
         <v>1</v>
@@ -6283,7 +6283,7 @@
         <v>51</v>
       </c>
       <c r="JG8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH8">
         <v>9300</v>
@@ -6298,7 +6298,7 @@
         <v>51</v>
       </c>
       <c r="JL8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO8">
         <v>0</v>
@@ -6307,7 +6307,7 @@
         <v>0</v>
       </c>
       <c r="JQ8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JR8" t="s">
         <v>501</v>
@@ -6347,14 +6347,11 @@
       <c r="E9">
         <v>19994</v>
       </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-      <c r="G9" t="s">
-        <v>333</v>
+      <c r="G9">
+        <v>3</v>
       </c>
       <c r="H9">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -6363,7 +6360,7 @@
         <v>2.6</v>
       </c>
       <c r="K9">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -6522,7 +6519,7 @@
         <v>46</v>
       </c>
       <c r="DE9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF9" t="s">
         <v>373</v>
@@ -6804,7 +6801,7 @@
         <v>487</v>
       </c>
       <c r="IN9">
-        <v>86400</v>
+        <v>57600</v>
       </c>
       <c r="IO9">
         <v>1</v>
@@ -6855,7 +6852,7 @@
         <v>0</v>
       </c>
       <c r="JG9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ9">
         <v>0</v>
@@ -6864,7 +6861,7 @@
         <v>0</v>
       </c>
       <c r="JL9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO9">
         <v>0</v>
@@ -6873,7 +6870,7 @@
         <v>0</v>
       </c>
       <c r="JQ9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JR9" t="s">
         <v>502</v>
@@ -6913,7 +6910,7 @@
       <c r="E10">
         <v>19849</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>4</v>
       </c>
       <c r="H10">
@@ -7070,7 +7067,7 @@
         <v>0</v>
       </c>
       <c r="DE10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF10" t="s">
         <v>373</v>
@@ -7313,7 +7310,7 @@
         <v>0</v>
       </c>
       <c r="JG10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ10">
         <v>0</v>
@@ -7322,7 +7319,7 @@
         <v>0</v>
       </c>
       <c r="JL10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO10">
         <v>0</v>
@@ -7331,7 +7328,7 @@
         <v>0</v>
       </c>
       <c r="JQ10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:295">
@@ -7344,7 +7341,10 @@
       <c r="E11">
         <v>19767</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="s">
+        <v>333</v>
+      </c>
+      <c r="G11">
         <v>4</v>
       </c>
       <c r="H11">
@@ -7516,7 +7516,7 @@
         <v>60</v>
       </c>
       <c r="DE11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF11" t="s">
         <v>373</v>
@@ -7771,7 +7771,7 @@
         <v>487</v>
       </c>
       <c r="IN11">
-        <v>57600</v>
+        <v>72000</v>
       </c>
       <c r="IO11">
         <v>1</v>
@@ -7828,7 +7828,7 @@
         <v>59</v>
       </c>
       <c r="JG11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH11">
         <v>8300</v>
@@ -7843,7 +7843,7 @@
         <v>60</v>
       </c>
       <c r="JL11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM11">
         <v>6800</v>
@@ -7858,7 +7858,7 @@
         <v>57</v>
       </c>
       <c r="JQ11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:295">
@@ -7871,11 +7871,8 @@
       <c r="E12">
         <v>19761</v>
       </c>
-      <c r="F12">
-        <v>3</v>
-      </c>
-      <c r="G12" t="s">
-        <v>333</v>
+      <c r="G12">
+        <v>3</v>
       </c>
       <c r="H12">
         <v>100</v>
@@ -8031,7 +8028,7 @@
         <v>0</v>
       </c>
       <c r="DE12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF12" t="s">
         <v>373</v>
@@ -8223,7 +8220,7 @@
         <v>487</v>
       </c>
       <c r="IN12">
-        <v>57600</v>
+        <v>43200</v>
       </c>
       <c r="IO12">
         <v>1</v>
@@ -8274,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="JG12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ12">
         <v>0</v>
@@ -8283,7 +8280,7 @@
         <v>0</v>
       </c>
       <c r="JL12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO12">
         <v>0</v>
@@ -8292,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="JQ12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:295">
@@ -8305,11 +8302,8 @@
       <c r="E13">
         <v>19686</v>
       </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
-      <c r="G13" t="s">
-        <v>333</v>
+      <c r="G13">
+        <v>3</v>
       </c>
       <c r="H13">
         <v>100</v>
@@ -8480,7 +8474,7 @@
         <v>56</v>
       </c>
       <c r="DE13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF13" t="s">
         <v>373</v>
@@ -8762,7 +8756,7 @@
         <v>487</v>
       </c>
       <c r="IN13">
-        <v>72000</v>
+        <v>86400</v>
       </c>
       <c r="IO13">
         <v>1</v>
@@ -8813,7 +8807,7 @@
         <v>0</v>
       </c>
       <c r="JG13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ13">
         <v>0</v>
@@ -8822,7 +8816,7 @@
         <v>0</v>
       </c>
       <c r="JL13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO13">
         <v>0</v>
@@ -8831,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="JQ13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:295">
@@ -8844,7 +8838,7 @@
       <c r="E14">
         <v>19522</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>3</v>
       </c>
       <c r="H14">
@@ -9001,7 +8995,7 @@
         <v>0</v>
       </c>
       <c r="DE14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF14" t="s">
         <v>373</v>
@@ -9244,7 +9238,7 @@
         <v>0</v>
       </c>
       <c r="JG14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ14">
         <v>0</v>
@@ -9253,7 +9247,7 @@
         <v>0</v>
       </c>
       <c r="JL14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO14">
         <v>0</v>
@@ -9262,7 +9256,7 @@
         <v>0</v>
       </c>
       <c r="JQ14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:295">
@@ -9275,11 +9269,11 @@
       <c r="E15">
         <v>19414</v>
       </c>
-      <c r="F15">
-        <v>4</v>
+      <c r="G15">
+        <v>3</v>
       </c>
       <c r="H15">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -9288,7 +9282,7 @@
         <v>2.6</v>
       </c>
       <c r="K15">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -9447,7 +9441,7 @@
         <v>49</v>
       </c>
       <c r="DE15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF15" t="s">
         <v>373</v>
@@ -9702,7 +9696,7 @@
         <v>487</v>
       </c>
       <c r="IN15">
-        <v>86400</v>
+        <v>57600</v>
       </c>
       <c r="IO15">
         <v>1</v>
@@ -9753,7 +9747,7 @@
         <v>0</v>
       </c>
       <c r="JG15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ15">
         <v>0</v>
@@ -9762,7 +9756,7 @@
         <v>0</v>
       </c>
       <c r="JL15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO15">
         <v>0</v>
@@ -9771,7 +9765,7 @@
         <v>0</v>
       </c>
       <c r="JQ15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:295">
@@ -9784,7 +9778,7 @@
       <c r="E16">
         <v>19288</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>3</v>
       </c>
       <c r="H16">
@@ -9941,7 +9935,7 @@
         <v>0</v>
       </c>
       <c r="DE16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF16" t="s">
         <v>373</v>
@@ -10133,7 +10127,7 @@
         <v>487</v>
       </c>
       <c r="IN16">
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="IO16">
         <v>1</v>
@@ -10184,7 +10178,7 @@
         <v>0</v>
       </c>
       <c r="JG16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ16">
         <v>0</v>
@@ -10193,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="JL16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO16">
         <v>0</v>
@@ -10202,7 +10196,7 @@
         <v>0</v>
       </c>
       <c r="JQ16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:295">
@@ -10215,7 +10209,7 @@
       <c r="E17">
         <v>19210</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>4</v>
       </c>
       <c r="H17">
@@ -10372,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="DE17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF17" t="s">
         <v>373</v>
@@ -10564,7 +10558,7 @@
         <v>487</v>
       </c>
       <c r="IN17">
-        <v>43200</v>
+        <v>57600</v>
       </c>
       <c r="IO17">
         <v>1</v>
@@ -10615,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="JG17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ17">
         <v>0</v>
@@ -10624,7 +10618,7 @@
         <v>0</v>
       </c>
       <c r="JL17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO17">
         <v>0</v>
@@ -10633,7 +10627,7 @@
         <v>0</v>
       </c>
       <c r="JQ17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:295">
@@ -10646,7 +10640,7 @@
       <c r="E18">
         <v>19147</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>4</v>
       </c>
       <c r="H18">
@@ -10818,7 +10812,7 @@
         <v>50</v>
       </c>
       <c r="DE18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF18" t="s">
         <v>373</v>
@@ -11100,7 +11094,7 @@
         <v>487</v>
       </c>
       <c r="IN18">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="IO18">
         <v>1</v>
@@ -11151,7 +11145,7 @@
         <v>0</v>
       </c>
       <c r="JG18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ18">
         <v>0</v>
@@ -11160,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="JL18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO18">
         <v>0</v>
@@ -11169,7 +11163,7 @@
         <v>0</v>
       </c>
       <c r="JQ18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:295">
@@ -11182,7 +11176,7 @@
       <c r="E19">
         <v>19040</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>3</v>
       </c>
       <c r="H19">
@@ -11339,7 +11333,7 @@
         <v>0</v>
       </c>
       <c r="DE19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF19" t="s">
         <v>373</v>
@@ -11531,7 +11525,7 @@
         <v>487</v>
       </c>
       <c r="IN19">
-        <v>43200</v>
+        <v>86400</v>
       </c>
       <c r="IO19">
         <v>1</v>
@@ -11582,7 +11576,7 @@
         <v>0</v>
       </c>
       <c r="JG19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ19">
         <v>0</v>
@@ -11591,7 +11585,7 @@
         <v>0</v>
       </c>
       <c r="JL19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO19">
         <v>0</v>
@@ -11600,7 +11594,7 @@
         <v>0</v>
       </c>
       <c r="JQ19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:295">
@@ -11613,11 +11607,11 @@
       <c r="E20">
         <v>18552</v>
       </c>
-      <c r="F20">
-        <v>3</v>
+      <c r="G20">
+        <v>4</v>
       </c>
       <c r="H20">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -11626,7 +11620,7 @@
         <v>2.6</v>
       </c>
       <c r="K20">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -11785,7 +11779,7 @@
         <v>47</v>
       </c>
       <c r="DE20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF20" t="s">
         <v>373</v>
@@ -12040,7 +12034,7 @@
         <v>487</v>
       </c>
       <c r="IN20">
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="IO20">
         <v>1</v>
@@ -12091,7 +12085,7 @@
         <v>0</v>
       </c>
       <c r="JG20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ20">
         <v>0</v>
@@ -12100,7 +12094,7 @@
         <v>0</v>
       </c>
       <c r="JL20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO20">
         <v>0</v>
@@ -12109,7 +12103,7 @@
         <v>0</v>
       </c>
       <c r="JQ20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:295">
@@ -12122,14 +12116,14 @@
       <c r="E21">
         <v>18493</v>
       </c>
-      <c r="F21">
-        <v>4</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="F21" t="s">
         <v>333</v>
       </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
       <c r="H21">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I21">
         <v>2</v>
@@ -12138,7 +12132,7 @@
         <v>2.6</v>
       </c>
       <c r="K21">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -12297,7 +12291,7 @@
         <v>45</v>
       </c>
       <c r="DE21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF21" t="s">
         <v>373</v>
@@ -12552,7 +12546,7 @@
         <v>487</v>
       </c>
       <c r="IN21">
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="IO21">
         <v>1</v>
@@ -12603,7 +12597,7 @@
         <v>0</v>
       </c>
       <c r="JG21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ21">
         <v>0</v>
@@ -12612,7 +12606,7 @@
         <v>0</v>
       </c>
       <c r="JL21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO21">
         <v>0</v>
@@ -12621,7 +12615,7 @@
         <v>0</v>
       </c>
       <c r="JQ21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:295">
@@ -12634,14 +12628,11 @@
       <c r="E22">
         <v>18160</v>
       </c>
-      <c r="F22">
-        <v>3</v>
-      </c>
-      <c r="G22" t="s">
-        <v>333</v>
+      <c r="G22">
+        <v>4</v>
       </c>
       <c r="H22">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I22">
         <v>2</v>
@@ -12650,7 +12641,7 @@
         <v>2.6</v>
       </c>
       <c r="K22">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -12809,7 +12800,7 @@
         <v>90</v>
       </c>
       <c r="DE22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF22" t="s">
         <v>373</v>
@@ -13064,7 +13055,7 @@
         <v>487</v>
       </c>
       <c r="IN22">
-        <v>43200</v>
+        <v>86400</v>
       </c>
       <c r="IO22">
         <v>1</v>
@@ -13121,7 +13112,7 @@
         <v>48</v>
       </c>
       <c r="JG22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ22">
         <v>0</v>
@@ -13130,7 +13121,7 @@
         <v>0</v>
       </c>
       <c r="JL22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO22">
         <v>0</v>
@@ -13139,7 +13130,7 @@
         <v>0</v>
       </c>
       <c r="JQ22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:295">
@@ -13152,11 +13143,8 @@
       <c r="E23">
         <v>17736</v>
       </c>
-      <c r="F23">
-        <v>3</v>
-      </c>
-      <c r="G23" t="s">
-        <v>333</v>
+      <c r="G23">
+        <v>3</v>
       </c>
       <c r="H23">
         <v>100</v>
@@ -13327,7 +13315,7 @@
         <v>90</v>
       </c>
       <c r="DE23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF23" t="s">
         <v>373</v>
@@ -13666,7 +13654,7 @@
         <v>43</v>
       </c>
       <c r="JG23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH23">
         <v>2800</v>
@@ -13681,7 +13669,7 @@
         <v>43</v>
       </c>
       <c r="JL23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO23">
         <v>0</v>
@@ -13690,7 +13678,7 @@
         <v>0</v>
       </c>
       <c r="JQ23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JR23" t="s">
         <v>503</v>
@@ -13730,7 +13718,10 @@
       <c r="E24">
         <v>17231</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="s">
+        <v>333</v>
+      </c>
+      <c r="G24">
         <v>4</v>
       </c>
       <c r="H24">
@@ -13902,7 +13893,7 @@
         <v>41</v>
       </c>
       <c r="DE24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF24" t="s">
         <v>373</v>
@@ -14208,7 +14199,7 @@
         <v>0</v>
       </c>
       <c r="JG24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ24">
         <v>0</v>
@@ -14217,7 +14208,7 @@
         <v>0</v>
       </c>
       <c r="JL24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO24">
         <v>0</v>
@@ -14226,7 +14217,7 @@
         <v>0</v>
       </c>
       <c r="JQ24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:295">
@@ -14239,11 +14230,11 @@
       <c r="E25">
         <v>17130</v>
       </c>
-      <c r="F25">
-        <v>3</v>
+      <c r="G25">
+        <v>4</v>
       </c>
       <c r="H25">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I25">
         <v>2</v>
@@ -14252,7 +14243,7 @@
         <v>2.6</v>
       </c>
       <c r="K25">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -14411,7 +14402,7 @@
         <v>71</v>
       </c>
       <c r="DE25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF25" t="s">
         <v>373</v>
@@ -14666,7 +14657,7 @@
         <v>487</v>
       </c>
       <c r="IN25">
-        <v>72000</v>
+        <v>86400</v>
       </c>
       <c r="IO25">
         <v>1</v>
@@ -14717,7 +14708,7 @@
         <v>0</v>
       </c>
       <c r="JG25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ25">
         <v>0</v>
@@ -14726,7 +14717,7 @@
         <v>0</v>
       </c>
       <c r="JL25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO25">
         <v>0</v>
@@ -14735,7 +14726,7 @@
         <v>0</v>
       </c>
       <c r="JQ25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:295">
@@ -14748,7 +14739,7 @@
       <c r="E26">
         <v>17042</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>4</v>
       </c>
       <c r="H26">
@@ -14920,7 +14911,7 @@
         <v>52</v>
       </c>
       <c r="DE26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF26" t="s">
         <v>373</v>
@@ -15259,7 +15250,7 @@
         <v>52</v>
       </c>
       <c r="JG26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ26">
         <v>0</v>
@@ -15268,7 +15259,7 @@
         <v>0</v>
       </c>
       <c r="JL26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO26">
         <v>0</v>
@@ -15277,7 +15268,7 @@
         <v>0</v>
       </c>
       <c r="JQ26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:295">
@@ -15290,11 +15281,11 @@
       <c r="E27">
         <v>16829</v>
       </c>
-      <c r="F27">
-        <v>3</v>
+      <c r="G27">
+        <v>4</v>
       </c>
       <c r="H27">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I27">
         <v>2</v>
@@ -15303,7 +15294,7 @@
         <v>2.6</v>
       </c>
       <c r="K27">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -15447,7 +15438,7 @@
         <v>0</v>
       </c>
       <c r="DE27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF27" t="s">
         <v>373</v>
@@ -15639,7 +15630,7 @@
         <v>487</v>
       </c>
       <c r="IN27">
-        <v>72000</v>
+        <v>57600</v>
       </c>
       <c r="IO27">
         <v>1</v>
@@ -15690,7 +15681,7 @@
         <v>0</v>
       </c>
       <c r="JG27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ27">
         <v>0</v>
@@ -15699,7 +15690,7 @@
         <v>0</v>
       </c>
       <c r="JL27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO27">
         <v>0</v>
@@ -15708,7 +15699,7 @@
         <v>0</v>
       </c>
       <c r="JQ27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:295">
@@ -15721,11 +15712,8 @@
       <c r="E28">
         <v>15953</v>
       </c>
-      <c r="F28">
-        <v>3</v>
-      </c>
-      <c r="G28" t="s">
-        <v>333</v>
+      <c r="G28">
+        <v>3</v>
       </c>
       <c r="H28">
         <v>100</v>
@@ -15896,7 +15884,7 @@
         <v>55</v>
       </c>
       <c r="DE28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF28" t="s">
         <v>373</v>
@@ -16178,7 +16166,7 @@
         <v>487</v>
       </c>
       <c r="IN28">
-        <v>86400</v>
+        <v>57600</v>
       </c>
       <c r="IO28">
         <v>1</v>
@@ -16235,7 +16223,7 @@
         <v>55</v>
       </c>
       <c r="JG28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ28">
         <v>0</v>
@@ -16244,7 +16232,7 @@
         <v>0</v>
       </c>
       <c r="JL28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO28">
         <v>0</v>
@@ -16253,7 +16241,7 @@
         <v>0</v>
       </c>
       <c r="JQ28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:295">
@@ -16266,7 +16254,7 @@
       <c r="E29">
         <v>15873</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>3</v>
       </c>
       <c r="H29">
@@ -16438,7 +16426,7 @@
         <v>90</v>
       </c>
       <c r="DE29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF29" t="s">
         <v>373</v>
@@ -16666,7 +16654,7 @@
         <v>487</v>
       </c>
       <c r="IN29">
-        <v>57600</v>
+        <v>43200</v>
       </c>
       <c r="IO29">
         <v>1</v>
@@ -16723,7 +16711,7 @@
         <v>57</v>
       </c>
       <c r="JG29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ29">
         <v>0</v>
@@ -16732,7 +16720,7 @@
         <v>0</v>
       </c>
       <c r="JL29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO29">
         <v>0</v>
@@ -16741,7 +16729,7 @@
         <v>0</v>
       </c>
       <c r="JQ29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:295">
@@ -16754,11 +16742,11 @@
       <c r="E30">
         <v>15855</v>
       </c>
-      <c r="F30">
-        <v>3</v>
+      <c r="G30">
+        <v>4</v>
       </c>
       <c r="H30">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I30">
         <v>2</v>
@@ -16767,7 +16755,7 @@
         <v>2.6</v>
       </c>
       <c r="K30">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -16926,7 +16914,7 @@
         <v>41</v>
       </c>
       <c r="DE30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF30" t="s">
         <v>373</v>
@@ -17208,7 +17196,7 @@
         <v>487</v>
       </c>
       <c r="IN30">
-        <v>57600</v>
+        <v>43200</v>
       </c>
       <c r="IO30">
         <v>1</v>
@@ -17259,7 +17247,7 @@
         <v>0</v>
       </c>
       <c r="JG30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ30">
         <v>0</v>
@@ -17268,7 +17256,7 @@
         <v>0</v>
       </c>
       <c r="JL30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO30">
         <v>0</v>
@@ -17277,7 +17265,7 @@
         <v>0</v>
       </c>
       <c r="JQ30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JR30" t="s">
         <v>504</v>
@@ -17344,11 +17332,11 @@
       <c r="E31">
         <v>15737</v>
       </c>
-      <c r="F31">
-        <v>4</v>
+      <c r="G31">
+        <v>3</v>
       </c>
       <c r="H31">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I31">
         <v>2</v>
@@ -17357,7 +17345,7 @@
         <v>2.6</v>
       </c>
       <c r="K31">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -17501,7 +17489,7 @@
         <v>0</v>
       </c>
       <c r="DE31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF31" t="s">
         <v>373</v>
@@ -17744,7 +17732,7 @@
         <v>0</v>
       </c>
       <c r="JG31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ31">
         <v>0</v>
@@ -17753,7 +17741,7 @@
         <v>0</v>
       </c>
       <c r="JL31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO31">
         <v>0</v>
@@ -17762,7 +17750,7 @@
         <v>0</v>
       </c>
       <c r="JQ31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:295">
@@ -17775,14 +17763,14 @@
       <c r="E32">
         <v>15583</v>
       </c>
-      <c r="F32">
-        <v>3</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="F32" t="s">
         <v>333</v>
       </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
       <c r="H32">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I32">
         <v>2</v>
@@ -17791,7 +17779,7 @@
         <v>2.6</v>
       </c>
       <c r="K32">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -17935,7 +17923,7 @@
         <v>0</v>
       </c>
       <c r="DE32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF32" t="s">
         <v>373</v>
@@ -18127,7 +18115,7 @@
         <v>487</v>
       </c>
       <c r="IN32">
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="IO32">
         <v>1</v>
@@ -18178,7 +18166,7 @@
         <v>0</v>
       </c>
       <c r="JG32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ32">
         <v>0</v>
@@ -18187,7 +18175,7 @@
         <v>0</v>
       </c>
       <c r="JL32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO32">
         <v>0</v>
@@ -18196,7 +18184,7 @@
         <v>0</v>
       </c>
       <c r="JQ32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:295">
@@ -18209,7 +18197,7 @@
       <c r="E33">
         <v>14594</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>4</v>
       </c>
       <c r="H33">
@@ -18381,7 +18369,7 @@
         <v>39</v>
       </c>
       <c r="DE33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF33" t="s">
         <v>373</v>
@@ -18663,7 +18651,7 @@
         <v>487</v>
       </c>
       <c r="IN33">
-        <v>86400</v>
+        <v>57600</v>
       </c>
       <c r="IO33">
         <v>1</v>
@@ -18714,7 +18702,7 @@
         <v>0</v>
       </c>
       <c r="JG33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ33">
         <v>0</v>
@@ -18723,7 +18711,7 @@
         <v>0</v>
       </c>
       <c r="JL33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO33">
         <v>0</v>
@@ -18732,7 +18720,7 @@
         <v>0</v>
       </c>
       <c r="JQ33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:295">
@@ -18745,11 +18733,14 @@
       <c r="E34">
         <v>14561</v>
       </c>
-      <c r="F34">
-        <v>3</v>
+      <c r="F34" t="s">
+        <v>333</v>
+      </c>
+      <c r="G34">
+        <v>4</v>
       </c>
       <c r="H34">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I34">
         <v>2</v>
@@ -18758,7 +18749,7 @@
         <v>2.6</v>
       </c>
       <c r="K34">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -18917,7 +18908,7 @@
         <v>52</v>
       </c>
       <c r="DE34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF34" t="s">
         <v>373</v>
@@ -19199,7 +19190,7 @@
         <v>487</v>
       </c>
       <c r="IN34">
-        <v>72000</v>
+        <v>57600</v>
       </c>
       <c r="IO34">
         <v>1</v>
@@ -19250,7 +19241,7 @@
         <v>0</v>
       </c>
       <c r="JG34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ34">
         <v>0</v>
@@ -19259,7 +19250,7 @@
         <v>0</v>
       </c>
       <c r="JL34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO34">
         <v>0</v>
@@ -19268,7 +19259,7 @@
         <v>0</v>
       </c>
       <c r="JQ34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JR34" t="s">
         <v>505</v>
@@ -19335,7 +19326,10 @@
       <c r="E35">
         <v>14145</v>
       </c>
-      <c r="F35">
+      <c r="F35" t="s">
+        <v>333</v>
+      </c>
+      <c r="G35">
         <v>4</v>
       </c>
       <c r="H35">
@@ -19492,7 +19486,7 @@
         <v>0</v>
       </c>
       <c r="DE35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF35" t="s">
         <v>373</v>
@@ -19735,7 +19729,7 @@
         <v>0</v>
       </c>
       <c r="JG35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ35">
         <v>0</v>
@@ -19744,7 +19738,7 @@
         <v>0</v>
       </c>
       <c r="JL35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO35">
         <v>0</v>
@@ -19753,7 +19747,7 @@
         <v>0</v>
       </c>
       <c r="JQ35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:295">
@@ -19766,11 +19760,14 @@
       <c r="E36">
         <v>14125</v>
       </c>
-      <c r="F36">
-        <v>4</v>
+      <c r="F36" t="s">
+        <v>333</v>
+      </c>
+      <c r="G36">
+        <v>3</v>
       </c>
       <c r="H36">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I36">
         <v>2</v>
@@ -19779,7 +19776,7 @@
         <v>2.6</v>
       </c>
       <c r="K36">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -19923,7 +19920,7 @@
         <v>0</v>
       </c>
       <c r="DE36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF36" t="s">
         <v>373</v>
@@ -20115,7 +20112,7 @@
         <v>487</v>
       </c>
       <c r="IN36">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="IO36">
         <v>1</v>
@@ -20166,7 +20163,7 @@
         <v>0</v>
       </c>
       <c r="JG36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ36">
         <v>0</v>
@@ -20175,7 +20172,7 @@
         <v>0</v>
       </c>
       <c r="JL36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO36">
         <v>0</v>
@@ -20184,7 +20181,7 @@
         <v>0</v>
       </c>
       <c r="JQ36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:295">
@@ -20197,7 +20194,10 @@
       <c r="E37">
         <v>14119</v>
       </c>
-      <c r="F37">
+      <c r="F37" t="s">
+        <v>333</v>
+      </c>
+      <c r="G37">
         <v>3</v>
       </c>
       <c r="H37">
@@ -20354,7 +20354,7 @@
         <v>0</v>
       </c>
       <c r="DE37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF37" t="s">
         <v>373</v>
@@ -20546,7 +20546,7 @@
         <v>487</v>
       </c>
       <c r="IN37">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="IO37">
         <v>1</v>
@@ -20597,7 +20597,7 @@
         <v>0</v>
       </c>
       <c r="JG37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ37">
         <v>0</v>
@@ -20606,7 +20606,7 @@
         <v>0</v>
       </c>
       <c r="JL37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO37">
         <v>0</v>
@@ -20615,7 +20615,7 @@
         <v>0</v>
       </c>
       <c r="JQ37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:295">
@@ -20628,7 +20628,7 @@
       <c r="E38">
         <v>13668</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>3</v>
       </c>
       <c r="H38">
@@ -20785,7 +20785,7 @@
         <v>0</v>
       </c>
       <c r="DE38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF38" t="s">
         <v>373</v>
@@ -21028,7 +21028,7 @@
         <v>0</v>
       </c>
       <c r="JG38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ38">
         <v>0</v>
@@ -21037,7 +21037,7 @@
         <v>0</v>
       </c>
       <c r="JL38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO38">
         <v>0</v>
@@ -21046,7 +21046,7 @@
         <v>0</v>
       </c>
       <c r="JQ38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:295">
@@ -21059,7 +21059,7 @@
       <c r="E39">
         <v>13273</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>4</v>
       </c>
       <c r="H39">
@@ -21216,7 +21216,7 @@
         <v>0</v>
       </c>
       <c r="DE39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF39" t="s">
         <v>373</v>
@@ -21408,7 +21408,7 @@
         <v>487</v>
       </c>
       <c r="IN39">
-        <v>72000</v>
+        <v>86400</v>
       </c>
       <c r="IO39">
         <v>1</v>
@@ -21459,7 +21459,7 @@
         <v>0</v>
       </c>
       <c r="JG39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ39">
         <v>0</v>
@@ -21468,7 +21468,7 @@
         <v>0</v>
       </c>
       <c r="JL39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO39">
         <v>0</v>
@@ -21477,7 +21477,7 @@
         <v>0</v>
       </c>
       <c r="JQ39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:295">
@@ -21490,11 +21490,11 @@
       <c r="E40">
         <v>13127</v>
       </c>
-      <c r="F40">
-        <v>4</v>
+      <c r="G40">
+        <v>3</v>
       </c>
       <c r="H40">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I40">
         <v>2</v>
@@ -21503,7 +21503,7 @@
         <v>2.6</v>
       </c>
       <c r="K40">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L40">
         <v>1</v>
@@ -21662,7 +21662,7 @@
         <v>52</v>
       </c>
       <c r="DE40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF40" t="s">
         <v>373</v>
@@ -21995,7 +21995,7 @@
         <v>0</v>
       </c>
       <c r="JG40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ40">
         <v>0</v>
@@ -22004,7 +22004,7 @@
         <v>0</v>
       </c>
       <c r="JL40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO40">
         <v>0</v>
@@ -22013,7 +22013,7 @@
         <v>0</v>
       </c>
       <c r="JQ40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -22046,7 +22046,7 @@
         <v>508</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>509</v>
@@ -22174,7 +22174,7 @@
         <v>487</v>
       </c>
       <c r="V2">
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="W2">
         <v>1</v>
